--- a/testData/linux_resource_test_data.xlsx
+++ b/testData/linux_resource_test_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="164">
   <si>
     <t>测试点说明</t>
   </si>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>172.16.10.212</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -199,22 +195,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>添加RedHat123资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedHat123资源(172.16.10.211_-)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑RedHat123资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedHat123资源(172.16.10.211_-)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>查询Centos类型所有资源</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -274,14 +254,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>【IP】不能为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Debian</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -290,10 +262,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>IP地址输入不正确，请重新输入!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>不勾选运维协议</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -581,15 +549,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>RedHat资源(172.16.10.15_-)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除RedHat资源(172.16.10.15_-)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -739,6 +699,50 @@
   </si>
   <si>
     <t>12345678901234567890123456789012345678901234567890123456789012345Admin123</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除Debian</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除Centos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedHat15资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedHat211资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加RedHat211资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑RedHat211资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除RedHat15资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyya</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【地址】不能为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【地址】为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址输入不正确，请重新输入!</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1234,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1260,13 +1264,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
@@ -1290,18 +1294,18 @@
         <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25">
-      <c r="A2" s="9" t="s">
-        <v>42</v>
+      <c r="A2" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -1309,14 +1313,14 @@
       <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>43</v>
+      <c r="D2" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
@@ -1325,128 +1329,128 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1483,19 +1487,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1503,19 +1507,19 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -1524,154 +1528,154 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1680,24 +1684,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1706,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1719,9 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1737,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1751,22 +1753,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="5"/>
@@ -1774,12 +1776,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="8"/>
@@ -1787,22 +1789,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1815,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1847,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1880,63 +1882,63 @@
         <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25">
-      <c r="A2" s="9" t="s">
-        <v>44</v>
+      <c r="A2" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>45</v>
+      <c r="C2" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1952,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1969,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1989,132 +1991,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2129,7 +2131,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2152,22 +2154,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2175,366 +2177,366 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7">
         <v>22</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G14" s="5">
         <v>123</v>
@@ -2543,7 +2545,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2557,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2579,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -2587,16 +2589,44 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2633,13 +2663,13 @@
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2675,22 +2705,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2698,109 +2728,109 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2809,27 +2839,27 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2838,7 +2868,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2872,10 +2902,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -2883,19 +2913,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2928,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -2936,16 +2966,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
